--- a/Question_Set2/Role-specific skills/GDPR & Privacy.xlsx
+++ b/Question_Set2/Role-specific skills/GDPR & Privacy.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Which of the following statements is true?', 'ques_type': 2, 'options': ['The GDPR applies only to data where individuals are identifiable by name.', 'The GDPR applies to data relating to an individual who can be distinguished from other individuals, even if their name is not known.', 'The GDPR applies to all data containing the name of a person, regardless of the context.', 'The GDPR applies only to data which reveals specific characteristics about a person’s race, religion, or sexual orientation.'], 'score': 'The GDPR applies to data relating to an individual who can be distinguished from other individuals, even if their name is not known.'}, {'title': 'You are collecting names and home addresses from people via a website form.  You plan to use this information to send them marketing information by mail. When is the best time to provide privacy information to these individuals?', 'ques_type': 2, 'options': ['When you collect the personal information.', 'When you use the data for the first time.', 'Within three months of collecting the data.', 'It doesn’t matter because no personal data is involved.'], 'score': 'When you collect the personal information.'}, {'title': 'When is consent considered an appropriate legal basis for processing data?', 'ques_type': 2, 'options': ['When you want to obtain personal data in exchange for providing a product or service.', 'When you want to ensure that people have no option but to accept your processing of their personal data.', 'When you want to ensure that people don’t change their mind at a later date about how their data is used.', 'When you want to offer individuals a genuine choice and control over how their data is used.'], 'score': 'When you want to offer individuals a genuine choice and control over how their data is used.'}, {'title': 'Who has responsibility for the security of personal data within an organization?', 'ques_type': 2, 'options': ['The data protection officer has sole responsibility for data security.', 'All employees working with personal data (directly or indirectly) have responsibility for ensuring data remains secure.', 'The IT team is solely responsible for ensuring the security of data.', 'The CEO or director has sole responsibility for data security.'], 'score': 'All employees working with personal data (directly or indirectly) have responsibility for ensuring data remains secure.'}]</t>
+    <t>questions = [
+    {
+        "title": "Which of the following statements is true?",
+        "ques_type": 2,
+        "options": [
+            "The GDPR applies only to data where individuals are identifiable by name.",
+            "The GDPR applies to data relating to an individual who can be distinguished from other individuals, even if their name is not known.",
+            "The GDPR applies to all data containing the name of a person, regardless of the context.",
+            "The GDPR applies only to data which reveals specific characteristics about a person\u2019s race, religion, or sexual orientation."
+        ],
+        "score": "The GDPR applies to data relating to an individual who can be distinguished from other individuals, even if their name is not known."
+    },
+    {
+        "title": "You are collecting names and home addresses from people via a website form.  You plan to use this information to send them marketing information by mail. When is the best time to provide privacy information to these individuals?",
+        "ques_type": 2,
+        "options": [
+            "When you collect the personal information.",
+            "When you use the data for the first time.",
+            "Within three months of collecting the data.",
+            "It doesn\u2019t matter because no personal data is involved."
+        ],
+        "score": "When you collect the personal information."
+    },
+    {
+        "title": "When is consent considered an appropriate legal basis for processing data?",
+        "ques_type": 2,
+        "options": [
+            "When you want to obtain personal data in exchange for providing a product or service.",
+            "When you want to ensure that people have no option but to accept your processing of their personal data.",
+            "When you want to ensure that people don\u2019t change their mind at a later date about how their data is used.",
+            "When you want to offer individuals a genuine choice and control over how their data is used."
+        ],
+        "score": "When you want to offer individuals a genuine choice and control over how their data is used."
+    },
+    {
+        "title": "Who has responsibility for the security of personal data within an organization?",
+        "ques_type": 2,
+        "options": [
+            "The data protection officer has sole responsibility for data security.",
+            "All employees working with personal data (directly or indirectly) have responsibility for ensuring data remains secure.",
+            "The IT team is solely responsible for ensuring the security of data.",
+            "The CEO or director has sole responsibility for data security."
+        ],
+        "score": "All employees working with personal data (directly or indirectly) have responsibility for ensuring data remains secure."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
